--- a/com.ashnove.tasks/scoreCardxl.xlsx
+++ b/com.ashnove.tasks/scoreCardxl.xlsx
@@ -10,7 +10,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t xml:space="preserve">Ashutosh </t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>B won the Championship!</t>
+  </si>
+  <si>
+    <t>A won the Championship!</t>
   </si>
 </sst>
 </file>
@@ -61,12 +64,52 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="43"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -95,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -104,6 +147,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -326,13 +373,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="7">
         <v>5</v>
       </c>
     </row>
@@ -341,7 +388,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -355,7 +402,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="5">
@@ -363,7 +410,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -377,11 +424,11 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n">
-        <v>136.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" t="s" s="6">
         <v>10</v>
       </c>
     </row>
